--- a/data/04_aggregated/combined_df_agg_wide_brief.xlsx
+++ b/data/04_aggregated/combined_df_agg_wide_brief.xlsx
@@ -67,14 +67,14 @@
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -486,15 +486,11 @@
       <c r="E1" s="1" t="inlineStr"/>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Opening Height</t>
+          <t>Percent of View Width Obstructed</t>
         </is>
       </c>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Width % (wd_rel)</t>
-        </is>
-      </c>
+      <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
@@ -502,105 +498,115 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Opening Height (cm)</t>
+        </is>
+      </c>
       <c r="Q1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>mmHg</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>At 40mmHg</t>
+        </is>
+      </c>
       <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n">
-        <v>40</v>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>At 80mmHg</t>
+        </is>
       </c>
       <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n">
-        <v>80</v>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>At 120mmHg</t>
+        </is>
       </c>
       <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n">
-        <v>120</v>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>At 160mmHg</t>
+        </is>
       </c>
       <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n">
-        <v>160</v>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>At 200mmHg</t>
+        </is>
       </c>
       <c r="O2" s="1" t="n"/>
-      <c r="P2" s="1" t="n">
-        <v>200</v>
-      </c>
+      <c r="P2" s="1" t="inlineStr"/>
       <c r="Q2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>sem</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>sem</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>sem</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>sem</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>sem</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>sem</t>
+          <t>SEM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Material Type</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -620,7 +626,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>Spec Ang</t>
+          <t>Clicks</t>
         </is>
       </c>
     </row>
@@ -640,9 +646,7 @@
       <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
-        <v>5.4</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -652,7 +656,9 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>5.4</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -664,40 +670,40 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
+        <v>0.6612499319505689</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08911353173525373</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8443671402907071</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05808301533286093</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9190260765420001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.03890368674043798</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9522369208993413</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02228680740965125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9842065436332952</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.007314734579219944</v>
+      </c>
+      <c r="P6" t="n">
         <v>4.1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Q6" t="n">
         <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6612499319505689</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.08911353173525373</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8443671402907071</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05808301533286093</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9190260765420001</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.03890368674043798</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.9522369208993413</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.02228680740965125</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.9842065436332952</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.007314734579219944</v>
       </c>
     </row>
     <row r="7">
@@ -725,40 +731,40 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
+        <v>0.06546235299679315</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03220512572419684</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.06546212351046159</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1819028712178001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01028190559942059</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1931429257170823</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.06878412939846894</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2570040372978252</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05952037815675659</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.2631955945990094</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.116666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="Q7" t="n">
         <v>0.09279607271383372</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.06546235299679315</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.03220512572419684</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.06546212351046159</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1819028712178001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.01028190559942059</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1931429257170823</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.06878412939846894</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.2570040372978252</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.05952037815675659</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.2631955945990094</v>
       </c>
     </row>
     <row r="8">
@@ -782,40 +788,40 @@
         <v>5</v>
       </c>
       <c r="F8" t="n">
+        <v>0.3338275004171787</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08564408160296037</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5337288945524052</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.08025302461119295</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7092507471290523</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1047976543816248</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7881217858280617</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0950950984137965</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8505855671354238</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.08399255130521296</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.733333333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Q8" t="n">
         <v>0.01666666666666661</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3338275004171787</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.08564408160296037</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5337288945524052</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.08025302461119295</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7092507471290523</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1047976543816248</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.7881217858280617</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0950950984137965</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.8505855671354238</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.08399255130521296</v>
       </c>
     </row>
     <row r="9">
@@ -828,47 +834,47 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Two finger</t>
+          <t>Two fingers</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4983430479613686</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04082249577650276</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7382021427822955</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.04050828773957967</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8724221777656892</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.04689197843099319</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9394200653742639</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02923728431164176</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9817315847850199</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.01242228076159087</v>
+      </c>
+      <c r="P9" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="G9" t="n">
+      <c r="Q9" t="n">
         <v>0.05773502691896263</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4983430479613686</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.04082249577650276</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7382021427822955</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.04050828773957967</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8724221777656892</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.04689197843099319</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.9394200653742639</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.02923728431164176</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.9817315847850199</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.01242228076159087</v>
       </c>
     </row>
     <row r="10">
@@ -884,40 +890,40 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
+        <v>0.211578745243706</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04008012117183655</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4718965825475561</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03562110782453407</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6232664680392368</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02125970045330115</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7265051446575308</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01523668688992821</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7800734942530285</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.02439982530583565</v>
+      </c>
+      <c r="P10" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="G10" t="n">
+      <c r="Q10" t="n">
         <v>0.1666666666666667</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.211578745243706</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.04008012117183655</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4718965825475561</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.03562110782453407</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.6232664680392368</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.02125970045330115</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.7265051446575308</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.01523668688992821</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.7800734942530285</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.02439982530583565</v>
       </c>
     </row>
     <row r="11">
@@ -937,40 +943,40 @@
         <v>5</v>
       </c>
       <c r="F11" t="n">
+        <v>0.2616569836144734</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.06383136664565213</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4682489403051309</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.07051946794820337</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5980990952849742</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.07043337337777501</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6932279844459067</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.06584499095601708</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7574144635385052</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.06275552971417674</v>
+      </c>
+      <c r="P11" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Q11" t="n">
         <v>0.06666666666666674</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.2616569836144734</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.06383136664565213</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4682489403051309</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.07051946794820337</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.5980990952849742</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.07043337337777501</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.6932279844459067</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.06584499095601708</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.7574144635385052</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.06275552971417674</v>
       </c>
     </row>
     <row r="12">
@@ -990,40 +996,40 @@
         <v>3</v>
       </c>
       <c r="F12" t="n">
+        <v>0.7085687076716826</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03158426480567398</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8693556156530985</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0425128198899935</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9485276101980907</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.02434747726896511</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9865538219725862</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.009277754583054834</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9945538219725862</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.001283025456764038</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.6</v>
       </c>
-      <c r="G12" t="n">
+      <c r="Q12" t="n">
         <v>0.05000000000000012</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7085687076716826</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.03158426480567398</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8693556156530985</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0425128198899935</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.9485276101980907</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.02434747726896511</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.9865538219725862</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.009277754583054834</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.9945538219725862</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.001283025456764038</v>
       </c>
     </row>
     <row r="13">
@@ -1039,40 +1045,40 @@
         <v>3</v>
       </c>
       <c r="F13" t="n">
+        <v>0.5686281141244377</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1321378832245702</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8288789947797301</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.08325638553380656</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9370470726169255</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05079860848727171</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9829154199558611</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01106943831753875</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9932336097317714</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.002919525852876693</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="G13" t="n">
+      <c r="Q13" t="n">
         <v>0.04409585518440983</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5686281141244377</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.1321378832245702</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8288789947797301</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.08325638553380656</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.9370470726169255</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.05079860848727171</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.9829154199558611</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.01106943831753875</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.9932336097317714</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.002919525852876693</v>
       </c>
     </row>
     <row r="14">
@@ -1088,40 +1094,40 @@
         <v>3</v>
       </c>
       <c r="F14" t="n">
+        <v>0.6555901738033952</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04700963984855749</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8840426748582461</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.051733496090553</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9391680329843445</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.02838719316145618</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.9834851491123437</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.006956062139357307</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9958196032398398</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.611210349781738e-05</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="G14" t="n">
+      <c r="Q14" t="n">
         <v>0.01666666666666661</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6555901738033952</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.04700963984855749</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8840426748582461</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.051733496090553</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.9391680329843445</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.02838719316145618</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.9834851491123437</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.006956062139357307</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.9958196032398398</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>6.611210349781738e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1137,46 +1143,46 @@
         <v>3</v>
       </c>
       <c r="F15" t="n">
+        <v>0.5856964241060265</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01395949963175941</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8111277819454864</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.03065636601650415</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.908959531549554</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.033974868803479</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9688838876385764</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01066921678271859</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9880147120113362</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.004620706560846196</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="G15" t="n">
+      <c r="Q15" t="n">
         <v>0.01666666666666676</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5856964241060265</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.01395949963175941</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.8111277819454864</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.03065636601650415</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.908959531549554</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.033974868803479</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.9688838876385764</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.01066921678271859</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.9880147120113362</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.004620706560846196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
